--- a/arthropods.xlsx
+++ b/arthropods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
   <si>
     <t>Region</t>
   </si>
@@ -99,6 +99,87 @@
   </si>
   <si>
     <t>Tetramorium?</t>
+  </si>
+  <si>
+    <t>Subfamily</t>
+  </si>
+  <si>
+    <t>Morpho</t>
+  </si>
+  <si>
+    <t>Myrmicinae</t>
+  </si>
+  <si>
+    <t>looks like 2 types</t>
+  </si>
+  <si>
+    <t>Araneae</t>
+  </si>
+  <si>
+    <t>small, two stripes on thorax. Abdomen browen and crown with triangle emarginations. Bodyshape tarantula like</t>
+  </si>
+  <si>
+    <t>Ptinidae</t>
+  </si>
+  <si>
+    <t>Ptininae</t>
+  </si>
+  <si>
+    <t>Likely Ptinus</t>
+  </si>
+  <si>
+    <t>Theraphosidae?</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Cicadellidae</t>
+  </si>
+  <si>
+    <t>Pholcidae</t>
+  </si>
+  <si>
+    <t>translucent, greenish blue abdomen</t>
+  </si>
+  <si>
+    <t>larva</t>
+  </si>
+  <si>
+    <t>larger than #12</t>
+  </si>
+  <si>
+    <t>Dermaptera</t>
+  </si>
+  <si>
+    <t>Forficula auricularia</t>
+  </si>
+  <si>
+    <t>European earwig</t>
+  </si>
+  <si>
+    <t>Forficulidae</t>
+  </si>
+  <si>
+    <t>Forficula</t>
+  </si>
+  <si>
+    <t>Lygaeidae</t>
+  </si>
+  <si>
+    <t>Corinnidae?</t>
+  </si>
+  <si>
+    <t>2 types</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>micro-moth</t>
+  </si>
+  <si>
+    <t>Lycopsidae</t>
   </si>
 </sst>
 </file>
@@ -416,19 +497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,19 +533,25 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -485,14 +573,14 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -514,14 +602,14 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -540,11 +628,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -566,14 +654,20 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -587,7 +681,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -595,7 +701,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
@@ -605,11 +723,23 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -619,8 +749,642 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
